--- a/JOBCON/CASI, BRYAN C..xlsx
+++ b/JOBCON/CASI, BRYAN C..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\JOBCON\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>PERIOD</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>JOBCON</t>
+  </si>
+  <si>
+    <t>CASI, BRYAN CRISTAL</t>
+  </si>
+  <si>
+    <t>BPLO</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>5/10-12/2023</t>
   </si>
 </sst>
 </file>
@@ -548,15 +560,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -569,11 +572,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,7 +1041,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1072,7 +1084,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,7 +1148,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,7 +1208,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1274,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1337,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1435,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1482,7 +1494,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1559,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1602,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1677,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1863,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1929,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1987,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2053,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,7 +2109,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2184,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2227,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2293,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2349,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2447,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2510,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,8 +2958,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4785" topLeftCell="A7" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2969,20 +2981,22 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="49" t="s">
+        <v>44</v>
+      </c>
       <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2993,14 +3007,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3013,14 +3027,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3046,18 +3062,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3142,8 +3158,12 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="40">
+        <v>45058</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
@@ -3154,8 +3174,12 @@
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="20"/>
+      <c r="J11" s="11">
+        <v>3</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
@@ -5127,17 +5151,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
